--- a/biology/Zoologie/Euechinoidea/Euechinoidea.xlsx
+++ b/biology/Zoologie/Euechinoidea/Euechinoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Euechinoidea forment une sous-classe d'échinodermes au sein de la classe des oursins (Echinoidea). Elle comporte la très large majorité des espèces actuelles d'oursins, et semble être apparue au Trias[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Euechinoidea forment une sous-classe d'échinodermes au sein de la classe des oursins (Echinoidea). Elle comporte la très large majorité des espèces actuelles d'oursins, et semble être apparue au Trias.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque tous les oursins actuels sont des Euechinoidea : les exceptions appartiennent à l'ordre des Cidaroida, souvent cantonné aux grands fonds ou à certaines niches écologiques plus ou moins extrêmes, et caractérisés par leurs grosses radioles en massues sans épiderme.
 La sous-classe des Euechinoidea comporte à la fois des oursins réguliers (forme sphérique avec la bouche en bas et l'anus en haut) et des oursins irréguliers (ne suivant pas cette conformation canonique : plats, allongés, en forme de cœur...), ainsi que quelques formes plus originales (certains « oursins-crayons », l'oursin-tortue...).
 Le test (coquille) est composé de 10 colonnes de plaques ambulacraires et interambulacraires, réparties selon une symétrie radiale bipentaradiaire (2x5). Elles sont composées de calcaire renforcé de monocristaux de calcite.
 Les radioles (piquants) sont recouvertes d'un fin épiderme cilié, qui empêche les algues de s'y développer (contrairement à leur groupe frère, les Cidaroida).
 Ces oursins sont équipés de sphaeridia sur leur test (organes sensoriels).
-Ils possèdent également des pédicellaires, de type globulaire ou à 3 mors[1].
-Ce groupe a fait l'objet d'une vaste réorganisation à la suite d'études génétiques en 2022[2]. 
+Ils possèdent également des pédicellaires, de type globulaire ou à 3 mors.
+Ce groupe a fait l'objet d'une vaste réorganisation à la suite d'études génétiques en 2022. 
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Oursin rouge (Astropyga radiata), un Diadematacea
